--- a/reportes/reporte_arqueo_caja.xlsx
+++ b/reportes/reporte_arqueo_caja.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARLON\Desktop\Enigma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARLON\Desktop\Enigma\SystemDemo\reportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,9 +38,6 @@
     <t>GENERADO POR: Admin1</t>
   </si>
   <si>
-    <t>REPORTE DE VENTA POR CATEGORIA</t>
-  </si>
-  <si>
     <t>DESCRIPCION</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>FECHA Y HORA: 5/08/2022 10:25</t>
+  </si>
+  <si>
+    <t>REPORTE DE ARQUEO DE CAJA</t>
   </si>
 </sst>
 </file>
@@ -184,12 +184,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -201,6 +195,12 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -529,7 +529,7 @@
   <dimension ref="A2:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,42 +542,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="A4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="4"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -589,7 +589,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -606,84 +606,84 @@
       <c r="G11" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="9" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="10">
+        <v>2500</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="12">
-        <v>2500</v>
-      </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="10">
+        <v>100</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="10">
+        <v>500</v>
+      </c>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="10">
+        <v>500</v>
+      </c>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="10">
         <v>100</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="12">
-        <v>500</v>
-      </c>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="12">
-        <v>500</v>
-      </c>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="12">
-        <v>100</v>
-      </c>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="12">
+      <c r="C21" s="10">
         <v>1600</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="2"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
